--- a/biology/Médecine/City_of_Hope_National_Medical_Center/City_of_Hope_National_Medical_Center.xlsx
+++ b/biology/Médecine/City_of_Hope_National_Medical_Center/City_of_Hope_National_Medical_Center.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">City of Hope National Medical Center est un centre de recherche clinique privé à but non lucratif, un hôpital et une école supérieure situé à Duarte, en Californie, aux États-Unis.
 Le campus principal du centre se trouve sur un terrain de 110 acres (45 ha) adjacent aux limites de Duarte et Irwindale, avec un réseau de pratiques cliniques dans toute la Californie du Sud, des bureaux satellites à Monrovia et Irwindale, et des bureaux régionaux de collecte de fonds à travers les États-Unis.
